--- a/classfiers/nano/MLP/nano-mlp-results.xlsx
+++ b/classfiers/nano/MLP/nano-mlp-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.6875000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9974178403755869</v>
+        <v>0.9897160742231165</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9988262910798122</v>
+        <v>0.9266711379387436</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5416666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9708920187793428</v>
+        <v>0.9215962441314554</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9047619047619047</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9411764705882353</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8421052631578947</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9960464541635781</v>
+        <v>0.9354460093896714</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8329764949458044</v>
+        <v>0.5338461538461539</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7584210526315789</v>
+        <v>0.3947619047619048</v>
       </c>
       <c r="D7" t="n">
-        <v>0.777063492063492</v>
+        <v>0.4314130434782609</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9926365208796639</v>
+        <v>0.9546858931365974</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/nano/MLP/nano-mlp-results.xlsx
+++ b/classfiers/nano/MLP/nano-mlp-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6875000000000001</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9897160742231165</v>
+        <v>0.9880629408572978</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9266711379387436</v>
+        <v>0.9245794899620183</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.45</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9215962441314554</v>
+        <v>0.9381443298969072</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307693</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8695652173913044</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9934551404417781</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9354460093896714</v>
+        <v>0.8400599945459504</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5338461538461539</v>
+        <v>0.7133333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3947619047619048</v>
+        <v>0.2450292397660818</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4314130434782609</v>
+        <v>0.3551503968295572</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9546858931365974</v>
+        <v>0.9368603791407905</v>
       </c>
     </row>
   </sheetData>
